--- a/biology/Botanique/Setaria_sphacelata/Setaria_sphacelata.xlsx
+++ b/biology/Botanique/Setaria_sphacelata/Setaria_sphacelata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Setaria sphacelata est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Panicoideae, originaire d'Afrique et de la péninsule arabique.
 Ce sont des plantes herbacées vivaces, cespiteuses, aux tiges (chaumes) pouvant atteindre 300 cm de long, et aux inflorescences en panicules.
-Setaria sphacelata est parfois cultivée comme plante fourragère, notamment en Australie. Elle doit être pâturée de préférence à l'état jeune et avant la montaison, lorsqu'elle est plus appétente et plus digestible pour le bétail[2].
+Setaria sphacelata est parfois cultivée comme plante fourragère, notamment en Australie. Elle doit être pâturée de préférence à l'état jeune et avant la montaison, lorsqu'elle est plus appétente et plus digestible pour le bétail.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Toxicité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce peut accumuler des oxalates dans les feuilles, en particulier dans les jeunes pousses vigoureuses et bien fertilisées. Cela peut conduire à  l'hyperparathyroïdisme (maladie de la « grosse tête ») chez les équidés (chevaux et ânes) et chez les ruminants, à une maladie rénale (néphrose), et notamment chez les vaches laitières à forte production à l'hypocalcémie (fièvre de lait) ou à l'hypomagnésémie (tétanie d'herbage)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce peut accumuler des oxalates dans les feuilles, en particulier dans les jeunes pousses vigoureuses et bien fertilisées. Cela peut conduire à  l'hyperparathyroïdisme (maladie de la « grosse tête ») chez les équidés (chevaux et ânes) et chez les ruminants, à une maladie rénale (néphrose), et notamment chez les vaches laitières à forte production à l'hypocalcémie (fièvre de lait) ou à l'hypomagnésémie (tétanie d'herbage).
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Liste des variétés et sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (25 décembre 2017)[3] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (25 décembre 2017) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèces :
 Setaria sphacelata subsp. aquamontana de Wit
 Setaria sphacelata subsp. sphacelata
